--- a/bug_report/BugReport.xlsx
+++ b/bug_report/BugReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\greys\Desktop\Шаг курс тестирование ПО\Урок 15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MacBook Air\Desktop\gitTest2\SecondRepository\bug_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EE66E7-B0C0-4A4E-A26B-21CD9432925B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769E9ED6-86CD-46CB-99BF-056CBA3A46F8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C399A4AF-B58C-4B71-8E99-079B9BC3C45E}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{C399A4AF-B58C-4B71-8E99-079B9BC3C45E}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Identifier</t>
   </si>
@@ -93,6 +85,9 @@
       <t/>
     </r>
   </si>
+  <si>
+    <t>При смене номера телефона с существующего на новый в разделе  "Управлении профилем" сообщение с "SMS кодом" приходит на старый номер телефона</t>
+  </si>
 </sst>
 </file>
 
@@ -268,22 +263,88 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -295,27 +356,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -325,30 +365,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -357,31 +373,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -399,7 +394,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Офіс">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -437,7 +432,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Офіс">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -543,7 +538,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Офіс">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -696,12 +691,12 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+      <selection activeCell="C2" sqref="C2:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -709,429 +704,433 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="2"/>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
       <c r="L1" s="2"/>
       <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="13"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="24"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="24"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="24"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="24"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="24"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="24"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="24"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="24"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="24"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="24"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="24"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="24"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="24"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="24"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="24"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="24"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="24"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="24"/>
-    </row>
-    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="25"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="35"/>
-    </row>
-    <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="14"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="17"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="17"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="17"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="17"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="17"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="17"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="17"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="17"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="17"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="17"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="17"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="17"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="17"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="17"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="17"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="17"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="17"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="17"/>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="20"/>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -1147,106 +1146,114 @@
       <c r="G22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="3"/>
+      <c r="H22" s="21"/>
       <c r="I22" s="2"/>
       <c r="J22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3"/>
+      <c r="K22" s="21"/>
       <c r="L22" s="2"/>
       <c r="M22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="R22" s="2"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="13"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="24"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="24"/>
-    </row>
-    <row r="26" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="25"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="35"/>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="14"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="17"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="17"/>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="A2:B21"/>
+    <mergeCell ref="C2:F21"/>
+    <mergeCell ref="G2:L21"/>
+    <mergeCell ref="M2:R21"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="A23:B26"/>
     <mergeCell ref="C23:D26"/>
@@ -1261,14 +1268,6 @@
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="J22:L22"/>
     <mergeCell ref="M22:P22"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="A2:B21"/>
-    <mergeCell ref="C2:F21"/>
-    <mergeCell ref="G2:L21"/>
-    <mergeCell ref="M2:R21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bug_report/BugReport.xlsx
+++ b/bug_report/BugReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MacBook Air\Desktop\gitTest2\SecondRepository\bug_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769E9ED6-86CD-46CB-99BF-056CBA3A46F8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EEC1B6-E3DF-4DC8-B521-048AE016479F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{C399A4AF-B58C-4B71-8E99-079B9BC3C45E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Identifier</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>При смене номера телефона с существующего на новый в разделе  "Управлении профилем" сообщение с "SMS кодом" приходит на старый номер телефона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Открыть сайт                                                                                           2.  Открыть форму "Управление профилем"                                                                                3. Кликнуть на кнопку "Редактировать"                                           4. Ввести в поле номера телефона вместо существующего новый номер "+79501908463"                                                                       5. Кликнуть на кнопку "Получить код"                                            6. Проверить новый номер телефона на наличие "SMS кода"                                                                                                                7. Ввести пришедший "SMS кода"  в поле "SMS кода"                                                                                           8.  Кликнуть на кнопку "Подтвердить коды"   </t>
   </si>
 </sst>
 </file>
@@ -263,6 +266,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -281,6 +287,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -292,87 +376,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -691,7 +694,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F21"/>
+      <selection activeCell="M2" sqref="M2:R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,431 +707,433 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
       <c r="F1" s="2"/>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
       <c r="L1" s="2"/>
       <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="31" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="14"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="29"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="17"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="32"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="17"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="32"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="17"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="32"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="17"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="32"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="17"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="32"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="17"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="32"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="17"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="32"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="17"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="32"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="17"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="32"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="17"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="32"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="17"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="32"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="17"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="32"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="17"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="32"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="17"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="32"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="17"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="32"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="17"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="32"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="17"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="32"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="17"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="32"/>
     </row>
     <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="20"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="35"/>
     </row>
     <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
@@ -1146,18 +1151,18 @@
       <c r="G22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="21"/>
+      <c r="H22" s="3"/>
       <c r="I22" s="2"/>
       <c r="J22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="21"/>
+      <c r="K22" s="3"/>
       <c r="L22" s="2"/>
       <c r="M22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="1" t="s">
         <v>10</v>
@@ -1165,95 +1170,87 @@
       <c r="R22" s="2"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="14"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="29"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="17"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="32"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="17"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="32"/>
     </row>
     <row r="26" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="20"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="A2:B21"/>
-    <mergeCell ref="C2:F21"/>
-    <mergeCell ref="G2:L21"/>
-    <mergeCell ref="M2:R21"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="A23:B26"/>
     <mergeCell ref="C23:D26"/>
@@ -1268,6 +1265,14 @@
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="J22:L22"/>
     <mergeCell ref="M22:P22"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="A2:B21"/>
+    <mergeCell ref="C2:F21"/>
+    <mergeCell ref="G2:L21"/>
+    <mergeCell ref="M2:R21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bug_report/BugReport.xlsx
+++ b/bug_report/BugReport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MacBook Air\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MacBook Air\Desktop\gitTest2\SecondRepository\bug_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0F03F3-8371-458C-8B90-2E7F0C19C436}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BF5A68-BB63-4E20-8DB7-6A434CDF0B85}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9075" xr2:uid="{C399A4AF-B58C-4B71-8E99-079B9BC3C45E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Summary</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Normal</t>
+  </si>
+  <si>
+    <t>1BR</t>
   </si>
 </sst>
 </file>
@@ -170,23 +173,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -194,26 +212,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,7 +535,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,160 +546,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" s="16"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="12" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F4"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A18:C18"/>
@@ -707,12 +716,6 @@
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:C12"/>
     <mergeCell ref="A14:C14"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
